--- a/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="74">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -209,6 +209,36 @@
   </si>
   <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget Wildcard Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NanumGothicCoding-Bold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OROCABOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button Test</t>
   </si>
 </sst>
 </file>
@@ -1431,6 +1461,9 @@
       <c r="I3" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
@@ -1451,6 +1484,7 @@
         <v>48</v>
       </c>
       <c r="I4"/>
+      <c r="J4"/>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1468,7 +1502,25 @@
       </c>
     </row>
     <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
+      <c r="J5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1668,20 +1720,52 @@
         <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>

--- a/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="75">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve">Button Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading...</t>
   </si>
 </sst>
 </file>

--- a/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="75">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1769,7 +1769,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:10"/>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>
     <row r="13" spans="2:10"/>

--- a/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="93">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -242,6 +242,60 @@
   </si>
   <si>
     <t xml:space="preserve">Loading...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSOLA.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;value&gt;%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANDARA.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOT &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ-+/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMKMRHD.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1536,9 @@
         <v>4</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
@@ -1520,7 +1576,9 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -1539,7 +1597,29 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
       <c r="I6"/>
+      <c r="J6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1555,6 +1635,27 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1786,9 +1887,91 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
-    <row r="13" spans="2:10"/>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="14" spans="2:10"/>
     <row r="15" spans="2:10"/>
     <row r="16" spans="2:10"/>

--- a/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="93">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -1872,16 +1872,16 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -1898,7 +1898,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1906,16 +1906,16 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1923,16 +1923,16 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -1955,23 +1955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="13" spans="2:10"/>
     <row r="14" spans="2:10"/>
     <row r="15" spans="2:10"/>
     <row r="16" spans="2:10"/>

--- a/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/firmware/orocaboy3_fw/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="95">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ-+/.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty </t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -1847,7 +1853,7 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
